--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676DF4F6-E624-4888-AEB8-1E17CA6A03A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0966EE-D927-447D-8BC9-BE0A032E0502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{D0646496-B616-4B6E-BAA2-1F9ABD3C0D76}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{F6C88661-8636-482B-B6BC-04C58C6F3DC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Goods" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おいしすぎてお腹だけでなく耐力も回復する(お腹+50、体力+10)</t>
+    <t>美味し過ぎてお腹だけでなく耐力も回復する(お腹+50、体力+10)</t>
+    <rPh sb="0" eb="2">
+      <t>オイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
     <rPh sb="7" eb="8">
       <t>ナカ</t>
     </rPh>
@@ -245,15 +251,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>大きすぎて正直食べられない(お腹+100)</t>
+    <t>大きすぎて正直食べられない(お腹+80)</t>
     <rPh sb="0" eb="1">
       <t>オオ</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウジキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タ</t>
+    <rPh sb="5" eb="8">
+      <t>ショウジキタ</t>
     </rPh>
     <rPh sb="15" eb="16">
       <t>ナカ</t>
@@ -261,27 +264,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>可愛らしいリンゴ。実用性はない(お腹+10)</t>
+    <t>可愛らしいリンゴ。実用性は無い(お腹+10)</t>
     <rPh sb="0" eb="2">
       <t>カワイ</t>
     </rPh>
     <rPh sb="9" eb="12">
       <t>ジツヨウセイ</t>
     </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナ</t>
+    </rPh>
     <rPh sb="17" eb="18">
       <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>序盤はこれだけで大丈夫…なはず！(体力+10)</t>
+    <t>序盤はこれだけで大丈夫……なはず！(体力+10)</t>
     <rPh sb="0" eb="2">
       <t>ジョバン</t>
     </rPh>
     <rPh sb="8" eb="11">
       <t>ダイジョウブ</t>
     </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="18" eb="20">
       <t>タイリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -294,11 +300,8 @@
     <rPh sb="2" eb="4">
       <t>セイチョウ</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ム</t>
+    <rPh sb="6" eb="8">
+      <t>カタム</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>タイリョク</t>
@@ -306,14 +309,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>かなり成長したらこの一本(体力+50)</t>
+    <t>かなり成長したらこの一本！(体力+50)</t>
     <rPh sb="3" eb="5">
       <t>セイチョウ</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>イッポン</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="14" eb="16">
       <t>タイリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -708,11 +711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FA4EAC-8E44-459D-B8C6-BB37B869D645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDA3F79-F0D8-4923-B3C4-932DFEFD0BDF}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -720,6 +723,10 @@
     <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="58.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0966EE-D927-447D-8BC9-BE0A032E0502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564935F1-BB06-48F6-A8FF-2D941ECCBD33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{F6C88661-8636-482B-B6BC-04C58C6F3DC3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="48">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -349,6 +349,9 @@
       <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S_ItemHeavyOutline_PotionRed_00</t>
   </si>
 </sst>
 </file>
@@ -714,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDA3F79-F0D8-4923-B3C4-932DFEFD0BDF}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -724,7 +727,7 @@
     <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="58.296875" bestFit="1" customWidth="1"/>
@@ -770,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -799,7 +802,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -828,7 +831,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -857,7 +860,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -886,7 +889,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -915,7 +918,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -941,7 +944,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -967,7 +970,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -993,7 +996,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1019,7 +1022,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1045,7 +1048,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1071,7 +1074,7 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1097,7 +1100,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1123,7 +1126,7 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1149,7 +1152,7 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1175,7 +1178,7 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1201,7 +1204,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1227,7 +1230,7 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1253,7 +1256,7 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1279,7 +1282,7 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1305,10 +1308,10 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -1334,10 +1337,10 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1363,10 +1366,10 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F24">
         <v>50</v>
@@ -1392,10 +1395,10 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1421,10 +1424,10 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F26">
         <v>100</v>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564935F1-BB06-48F6-A8FF-2D941ECCBD33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57DFC18-71C4-4E7E-B5B8-A3B85F5A2292}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{F6C88661-8636-482B-B6BC-04C58C6F3DC3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Goods" sheetId="1" r:id="rId1"/>
+    <sheet name="Equipments" sheetId="2" r:id="rId1"/>
+    <sheet name="Goods" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -144,27 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初級ポーション</t>
-    <rPh sb="0" eb="2">
-      <t>ショキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級ポーション</t>
-    <rPh sb="0" eb="2">
-      <t>チュウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上級ポーション</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>空のポーション</t>
     <rPh sb="0" eb="1">
       <t>カラ</t>
@@ -182,14 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>item1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>apple</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -352,6 +324,155 @@
   </si>
   <si>
     <t>S_ItemHeavyOutline_PotionRed_00</t>
+  </si>
+  <si>
+    <t>回復薬(小)</t>
+    <rPh sb="0" eb="3">
+      <t>カイフクヤク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復薬(中)</t>
+    <rPh sb="0" eb="3">
+      <t>カイフクヤク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復薬(大)</t>
+    <rPh sb="0" eb="3">
+      <t>カイフクヤク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEAPON01</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣1</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通の剣(攻撃+2)</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARMOR01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>布の鎧</t>
+    <rPh sb="0" eb="1">
+      <t>ヌノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨロイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>armor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐久性に難がありそうな鎧(防御+2)</t>
+    <rPh sb="0" eb="3">
+      <t>タイキュウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨロイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>Item3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item5</t>
+  </si>
+  <si>
+    <t>Item6</t>
+  </si>
+  <si>
+    <t>Item7</t>
+  </si>
+  <si>
+    <t>Item8</t>
+  </si>
+  <si>
+    <t>Item9</t>
+  </si>
+  <si>
+    <t>Item10</t>
+  </si>
+  <si>
+    <t>Item11</t>
+  </si>
+  <si>
+    <t>Item12</t>
+  </si>
+  <si>
+    <t>Item4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item13</t>
+  </si>
+  <si>
+    <t>Item2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item1</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -714,11 +835,539 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532F721D-DF64-4EEC-8D6E-B8D249534DF1}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDA3F79-F0D8-4923-B3C4-932DFEFD0BDF}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -773,10 +1422,10 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -788,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -802,10 +1451,10 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -817,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -831,10 +1480,10 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -846,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -860,10 +1509,10 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -875,7 +1524,7 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -889,10 +1538,10 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -904,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -918,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -944,7 +1593,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -970,7 +1619,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -996,7 +1645,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1022,7 +1671,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1048,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1074,7 +1723,7 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1100,7 +1749,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1126,7 +1775,7 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1152,7 +1801,7 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1178,7 +1827,7 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1204,7 +1853,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1230,7 +1879,7 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1256,7 +1905,7 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1282,7 +1931,7 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1305,13 +1954,13 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -1323,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -1334,13 +1983,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1352,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
@@ -1363,13 +2012,13 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F24">
         <v>50</v>
@@ -1381,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -1392,13 +2041,13 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1410,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -1421,13 +2070,13 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F26">
         <v>100</v>
@@ -1439,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57DFC18-71C4-4E7E-B5B8-A3B85F5A2292}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C1BCFB-272B-445B-8657-05FE303A2D5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{F6C88661-8636-482B-B6BC-04C58C6F3DC3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" activeTab="1" xr2:uid="{F6C88661-8636-482B-B6BC-04C58C6F3DC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipments" sheetId="2" r:id="rId1"/>
@@ -838,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532F721D-DF64-4EEC-8D6E-B8D249534DF1}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDA3F79-F0D8-4923-B3C4-932DFEFD0BDF}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C1BCFB-272B-445B-8657-05FE303A2D5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD1610-80CC-4EB0-BEED-60B52A099DD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" activeTab="1" xr2:uid="{F6C88661-8636-482B-B6BC-04C58C6F3DC3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5550" activeTab="1" xr2:uid="{F6C88661-8636-482B-B6BC-04C58C6F3DC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipments" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="83">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -472,6 +472,99 @@
   </si>
   <si>
     <t>Item1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAND01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火の杖</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapons_06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火の玉を出すオーソドックスな杖(攻撃5、5回)</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAGIC01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火の玉</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Magic1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たると痛い火の玉(攻撃5)</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shot</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -842,19 +935,19 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -912,7 +1005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -935,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -958,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -981,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1096,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1148,7 +1241,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1171,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1194,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1217,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1240,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1263,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1286,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1309,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1332,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1364,25 +1457,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDA3F79-F0D8-4923-B3C4-932DFEFD0BDF}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1408,10 +1502,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1436,11 +1533,11 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1465,11 +1562,11 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1494,11 +1591,11 @@
       <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1523,11 +1620,11 @@
       <c r="H5">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1552,11 +1649,11 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1578,11 +1675,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1604,11 +1701,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1630,11 +1727,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1656,11 +1753,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1682,11 +1779,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1708,11 +1805,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1734,11 +1831,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1760,11 +1857,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1786,11 +1883,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1812,11 +1909,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1838,11 +1935,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1864,11 +1961,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1890,11 +1987,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1916,11 +2013,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1942,11 +2039,11 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1971,11 +2068,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2000,11 +2097,11 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2029,11 +2126,11 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2058,11 +2155,11 @@
       <c r="H25">
         <v>5</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2087,8 +2184,66 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD1610-80CC-4EB0-BEED-60B52A099DD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1491E3-5C94-4D98-B7B3-9FDEC5A78E0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5550" activeTab="1" xr2:uid="{F6C88661-8636-482B-B6BC-04C58C6F3DC3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" activeTab="1" xr2:uid="{F6C88661-8636-482B-B6BC-04C58C6F3DC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipments" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="106">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -565,6 +565,177 @@
   </si>
   <si>
     <t>shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOOD06</t>
+  </si>
+  <si>
+    <t>FOOD07</t>
+  </si>
+  <si>
+    <t>FOOD08</t>
+  </si>
+  <si>
+    <t>FOOD09</t>
+  </si>
+  <si>
+    <t>FOOD10</t>
+  </si>
+  <si>
+    <t>毒リンゴ</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンゴっぽいナシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビリビリンゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眠リンゴ</t>
+    <rPh sb="0" eb="1">
+      <t>ネム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>癒しリンゴ</t>
+    <rPh sb="0" eb="1">
+      <t>イヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Paralysis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Confusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sleep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒が入っていなければ見た目は美味しそう(お腹+50、+毒)</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンゴそっくりで混乱する(お腹+30、+混乱)</t>
+    <rPh sb="8" eb="10">
+      <t>コンラン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コンラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>痺れるほどおいしいリンゴ(お腹+50、体力+20、+麻痺)</t>
+    <rPh sb="0" eb="1">
+      <t>シビ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>マヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べれるとリンゴの夢を見るらしい(お腹+30、+睡眠)</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スイミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>癒される形のリンゴ。美味しさは普通(お腹+30、+状態異常解除)</t>
+    <rPh sb="0" eb="1">
+      <t>イヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="31">
+      <t>ジョウタイイジョウカイジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -935,19 +1106,19 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +1147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1005,7 +1176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1028,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1074,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1120,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1143,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1166,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1189,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1212,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1241,7 +1412,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1264,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1310,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1333,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1356,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1379,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1402,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1425,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1457,26 +1628,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDA3F79-F0D8-4923-B3C4-932DFEFD0BDF}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1502,13 +1675,19 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1533,11 +1712,14 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1562,11 +1744,14 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1591,11 +1776,14 @@
       <c r="H4">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1620,11 +1808,14 @@
       <c r="H5">
         <v>8</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1649,141 +1840,177 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
         <v>69</v>
       </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
       </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>69</v>
       </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
       <c r="F9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
       </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>69</v>
       </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1805,11 +2032,14 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1831,11 +2061,14 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1857,11 +2090,14 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1883,11 +2119,14 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1909,11 +2148,14 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1935,11 +2177,14 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1961,11 +2206,14 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1987,11 +2235,14 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2013,11 +2264,14 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2039,210 +2293,379 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="J21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E27" t="s">
         <v>42</v>
       </c>
-      <c r="F22">
+      <c r="F27">
         <v>10</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D28" t="s">
         <v>70</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
         <v>42</v>
       </c>
-      <c r="F23">
+      <c r="F28">
         <v>30</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C29" t="s">
         <v>45</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D29" t="s">
         <v>70</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E29" t="s">
         <v>42</v>
       </c>
-      <c r="F24">
+      <c r="F29">
         <v>50</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D30" t="s">
         <v>70</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E30" t="s">
         <v>42</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>5</v>
       </c>
-      <c r="J25" t="s">
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D31" t="s">
         <v>70</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E31" t="s">
         <v>42</v>
       </c>
-      <c r="F26">
+      <c r="F31">
         <v>100</v>
       </c>
-      <c r="G26">
+      <c r="G31">
         <v>100</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>72</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D32" t="s">
         <v>81</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E32" t="s">
         <v>73</v>
       </c>
-      <c r="F27">
+      <c r="F32">
         <v>5</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>2</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" t="s">
         <v>75</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>75</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>5</v>
       </c>
-      <c r="J28" t="s">
+      <c r="I33" t="s">
+        <v>95</v>
+      </c>
+      <c r="L33" t="s">
         <v>79</v>
       </c>
     </row>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1491E3-5C94-4D98-B7B3-9FDEC5A78E0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0151669D-7DD6-4AFB-885A-54249FB8AC16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" activeTab="1" xr2:uid="{F6C88661-8636-482B-B6BC-04C58C6F3DC3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" activeTab="1" xr2:uid="{06ED1AE1-7F2E-476F-AF54-58F98C2DABDB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Equipments" sheetId="2" r:id="rId1"/>
-    <sheet name="Goods" sheetId="1" r:id="rId2"/>
+    <sheet name="Equipments" sheetId="1" r:id="rId1"/>
+    <sheet name="Goods" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="127">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,139 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>atk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dmg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEAPON01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣1</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通の剣(攻撃+2)</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARMOR01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>布の鎧</t>
+    <rPh sb="0" eb="1">
+      <t>ヌノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨロイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item5</t>
+  </si>
+  <si>
+    <t>item6</t>
+  </si>
+  <si>
+    <t>item7</t>
+  </si>
+  <si>
+    <t>item8</t>
+  </si>
+  <si>
+    <t>item9</t>
+  </si>
+  <si>
+    <t>item10</t>
+  </si>
+  <si>
+    <t>item11</t>
+  </si>
+  <si>
+    <t>item12</t>
+  </si>
+  <si>
+    <t>item4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item13</t>
+  </si>
+  <si>
+    <t>armor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐久性に難がありそうな鎧(防御+2)</t>
+    <rPh sb="0" eb="3">
+      <t>タイキュウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨロイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>hp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -56,11 +189,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dmg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>detail</t>
+    <t>extra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shot</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -80,7 +213,27 @@
     <t>FOOD05</t>
   </si>
   <si>
-    <t>NONE</t>
+    <t>FOOD06</t>
+  </si>
+  <si>
+    <t>FOOD07</t>
+  </si>
+  <si>
+    <t>FOOD08</t>
+  </si>
+  <si>
+    <t>FOOD09</t>
+  </si>
+  <si>
+    <t>MAGIC01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAND01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTION10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -100,23 +253,95 @@
     <t>POTION05</t>
   </si>
   <si>
+    <t>POTION06</t>
+  </si>
+  <si>
+    <t>POTION07</t>
+  </si>
+  <si>
+    <t>POTION08</t>
+  </si>
+  <si>
+    <t>POTION09</t>
+  </si>
+  <si>
     <t>Food</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Unknown</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Potion</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Wand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>リンゴ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Item2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通のリンゴ。少しお腹が満たされる(お腹+30)</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>おいしいリンゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美味し過ぎてお腹だけでなく耐力も回復する(お腹+50、体力+10)</t>
+    <rPh sb="0" eb="2">
+      <t>オイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -127,6 +352,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>いつもより大きくてお腹いっぱいになる(お腹+80)</t>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>巨大リンゴ</t>
     <rPh sb="0" eb="2">
       <t>キョダイ</t>
@@ -134,6 +372,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>大きすぎて正直食べられない(お腹+80)</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショウジキタ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>小さいリンゴ</t>
     <rPh sb="0" eb="1">
       <t>チイ</t>
@@ -141,7 +392,242 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なし</t>
+    <t>可愛らしいリンゴ。実用性は無い(お腹+10)</t>
+    <rPh sb="0" eb="2">
+      <t>カワイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ジツヨウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒リンゴ</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒が入っていなければ見た目は美味しそう(お腹+50、+毒)</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンゴっぽいナシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Confusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンゴそっくりで混乱する(お腹+30、+混乱)</t>
+    <rPh sb="8" eb="10">
+      <t>コンラン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コンラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビリビリンゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Paralysis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>痺れるほどおいしいリンゴ(お腹+50、体力+20、+麻痺)</t>
+    <rPh sb="0" eb="1">
+      <t>シビ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>マヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眠リンゴ</t>
+    <rPh sb="0" eb="1">
+      <t>ネム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sleep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べれるとリンゴの夢を見るらしい(お腹+30、+睡眠)</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スイミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>癒しリンゴ</t>
+    <rPh sb="0" eb="1">
+      <t>イヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>癒される形のリンゴ。美味しさは普通(お腹+30、+状態異常解除)</t>
+    <rPh sb="0" eb="1">
+      <t>イヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="31">
+      <t>ジョウタイイジョウカイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復薬(小)</t>
+    <rPh sb="0" eb="3">
+      <t>カイフクヤク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S_ItemHeavyOutline_PotionRed_00</t>
+  </si>
+  <si>
+    <t>序盤はこれだけで大丈夫……なはず！(体力+10)</t>
+    <rPh sb="0" eb="2">
+      <t>ジョバン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復薬(中)</t>
+    <rPh sb="0" eb="3">
+      <t>カイフクヤク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少し成長した方向け(体力+30)</t>
+    <rPh sb="0" eb="1">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復薬(大)</t>
+    <rPh sb="0" eb="3">
+      <t>カイフクヤク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かなり成長したらこの一本！(体力+50)</t>
+    <rPh sb="3" eb="5">
+      <t>セイチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッポン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -152,6 +638,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>正直外れ……。でも使いどころはある(体力+0)</t>
+    <rPh sb="0" eb="3">
+      <t>ショウジキハズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>伝説の秘薬</t>
     <rPh sb="0" eb="2">
       <t>デンセツ</t>
@@ -162,151 +661,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>apple</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>普通のリンゴ。少しお腹が満たされる(お腹+30)</t>
-    <rPh sb="0" eb="2">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>美味し過ぎてお腹だけでなく耐力も回復する(お腹+50、体力+10)</t>
-    <rPh sb="0" eb="2">
-      <t>オイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タイリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>タイリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いつもより大きくてお腹いっぱいになる(お腹+80)</t>
-    <rPh sb="5" eb="6">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大きすぎて正直食べられない(お腹+80)</t>
-    <rPh sb="0" eb="1">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ショウジキタ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>可愛らしいリンゴ。実用性は無い(お腹+10)</t>
-    <rPh sb="0" eb="2">
-      <t>カワイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ジツヨウセイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>序盤はこれだけで大丈夫……なはず！(体力+10)</t>
-    <rPh sb="0" eb="2">
-      <t>ジョバン</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>タイリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>少し成長した方向け(体力+30)</t>
-    <rPh sb="0" eb="1">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイチョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カタム</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かなり成長したらこの一本！(体力+50)</t>
-    <rPh sb="3" eb="5">
-      <t>セイチョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イッポン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タイリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正直外れ……。でも使いどころはある(体力+0)</t>
-    <rPh sb="0" eb="3">
-      <t>ショウジキハズ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>タイリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完全回復する。副作用はない(体力+100、お腹+100)</t>
     <rPh sb="0" eb="4">
       <t>カンゼンカイフク</t>
@@ -323,159 +677,140 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S_ItemHeavyOutline_PotionRed_00</t>
-  </si>
-  <si>
-    <t>回復薬(小)</t>
+    <t>毒ポーション</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item2</t>
+  </si>
+  <si>
+    <t>飲むと毒になる。取扱注意(+毒)</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>トリアツカイチュウイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビリビリポーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item3</t>
+  </si>
+  <si>
+    <t>静電気を蓄積したポーション(+麻痺)</t>
     <rPh sb="0" eb="3">
-      <t>カイフクヤク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回復薬(中)</t>
+      <t>セイデンキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チクセキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眠りポーション</t>
+    <rPh sb="0" eb="1">
+      <t>ネム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item4</t>
+  </si>
+  <si>
+    <t>不眠症のあなたに。ダンジョンで飲むのは危険(+睡眠)</t>
     <rPh sb="0" eb="3">
-      <t>カイフクヤク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回復薬(大)</t>
-    <rPh sb="0" eb="3">
-      <t>カイフクヤク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WEAPON01</t>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>剣1</t>
+      <t>フミンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>スイミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒールポーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item5</t>
+  </si>
+  <si>
+    <t>よかろうが悪かろうがとにかく以上を治す薬(状態異常解除)</t>
+    <rPh sb="5" eb="6">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="21" eb="27">
+      <t>ジョウタイイジョウカイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>凶悪ポーション</t>
+    <rPh sb="0" eb="2">
+      <t>キョウアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item6</t>
+  </si>
+  <si>
+    <t>AllBad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明らかに適当に配合した薬。まともな訳がない(+全振り状態異常)</t>
     <rPh sb="0" eb="1">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>普通の剣(攻撃+2)</t>
-    <rPh sb="0" eb="2">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ARMOR01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>布の鎧</t>
-    <rPh sb="0" eb="1">
-      <t>ヌノ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨロイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>armor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>耐久性に難がありそうな鎧(防御+2)</t>
-    <rPh sb="0" eb="3">
-      <t>タイキュウセイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナン</t>
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイゴウ</t>
     </rPh>
     <rPh sb="11" eb="12">
-      <t>ヨロイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ボウギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sword</t>
-  </si>
-  <si>
-    <t>Item3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item5</t>
-  </si>
-  <si>
-    <t>Item6</t>
-  </si>
-  <si>
-    <t>Item7</t>
-  </si>
-  <si>
-    <t>Item8</t>
-  </si>
-  <si>
-    <t>Item9</t>
-  </si>
-  <si>
-    <t>Item10</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item13</t>
-  </si>
-  <si>
-    <t>Item2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WAND01</t>
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワケ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼンフ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ジョウタイイジョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -489,6 +824,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Item5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>weapons_06</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -515,14 +854,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MAGIC01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Magic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>火の玉</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
@@ -556,186 +887,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Wand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>shot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FOOD06</t>
-  </si>
-  <si>
-    <t>FOOD07</t>
-  </si>
-  <si>
-    <t>FOOD08</t>
-  </si>
-  <si>
-    <t>FOOD09</t>
-  </si>
-  <si>
     <t>FOOD10</t>
-  </si>
-  <si>
-    <t>毒リンゴ</t>
-    <rPh sb="0" eb="1">
-      <t>ドク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リンゴっぽいナシ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビリビリンゴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>眠リンゴ</t>
-    <rPh sb="0" eb="1">
-      <t>ネム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>癒しリンゴ</t>
-    <rPh sb="0" eb="1">
-      <t>イヤ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>condition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>extra</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Paralysis</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Poison</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Confusion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sleep</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Recover</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>毒が入っていなければ見た目は美味しそう(お腹+50、+毒)</t>
-    <rPh sb="0" eb="1">
-      <t>ドク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>オイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ドク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リンゴそっくりで混乱する(お腹+30、+混乱)</t>
-    <rPh sb="8" eb="10">
-      <t>コンラン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コンラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>痺れるほどおいしいリンゴ(お腹+50、体力+20、+麻痺)</t>
-    <rPh sb="0" eb="1">
-      <t>シビ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タイリョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>マヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食べれるとリンゴの夢を見るらしい(お腹+30、+睡眠)</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ユメ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>スイミン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>癒される形のリンゴ。美味しさは普通(お腹+30、+状態異常解除)</t>
-    <rPh sb="0" eb="1">
-      <t>イヤ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>オイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="25" eb="31">
-      <t>ジョウタイイジョウカイジョ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1099,20 +1255,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532F721D-DF64-4EEC-8D6E-B8D249534DF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243C7A1-5F51-4C8A-B800-00E81E1A3259}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.09765625" bestFit="1" customWidth="1"/>
@@ -1135,10 +1291,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -1149,19 +1305,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1173,21 +1329,21 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1201,16 +1357,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1224,16 +1380,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1247,16 +1403,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1270,16 +1426,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1293,16 +1449,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1316,16 +1472,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1339,16 +1495,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1362,16 +1518,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1385,19 +1541,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1409,21 +1565,21 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1437,16 +1593,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1460,16 +1616,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1483,16 +1639,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1506,16 +1662,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1529,16 +1685,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1552,16 +1708,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1575,16 +1731,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
         <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1598,16 +1754,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1622,31 +1778,29 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDA3F79-F0D8-4923-B3C4-932DFEFD0BDF}">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CB0538-EC56-4571-88D3-B218C74ADA49}">
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="58.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="58.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
@@ -1666,22 +1820,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -1689,19 +1843,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1713,27 +1867,27 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1745,27 +1899,27 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1777,27 +1931,27 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1809,27 +1963,27 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1841,27 +1995,27 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1873,27 +2027,27 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1905,27 +2059,27 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -1937,27 +2091,27 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1969,27 +2123,27 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2001,27 +2155,27 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2033,24 +2187,24 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2062,24 +2216,24 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2091,24 +2245,24 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2120,24 +2274,24 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2149,24 +2303,24 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2178,24 +2332,24 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2207,24 +2361,24 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2236,24 +2390,24 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L19" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2265,24 +2419,24 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2294,24 +2448,24 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2323,24 +2477,24 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L22" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2352,24 +2506,24 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2381,24 +2535,24 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2410,24 +2564,24 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2439,27 +2593,27 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L26" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -2471,27 +2625,27 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L27" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -2503,27 +2657,27 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" t="s">
         <v>95</v>
-      </c>
-      <c r="L28" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F29">
         <v>50</v>
@@ -2535,27 +2689,27 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L29" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2567,27 +2721,27 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L30" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F31">
         <v>100</v>
@@ -2599,59 +2753,62 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>65</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
       </c>
       <c r="L31" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
-      </c>
-      <c r="K32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L32" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>106</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2660,13 +2817,179 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35">
         <v>5</v>
       </c>
-      <c r="I33" t="s">
-        <v>95</v>
-      </c>
-      <c r="L33" t="s">
-        <v>79</v>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" t="s">
+        <v>88</v>
+      </c>
+      <c r="L35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0151669D-7DD6-4AFB-885A-54249FB8AC16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2444C0D9-9918-4746-ABEF-81117E158C79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" activeTab="1" xr2:uid="{06ED1AE1-7F2E-476F-AF54-58F98C2DABDB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" activeTab="1" xr2:uid="{06ED1AE1-7F2E-476F-AF54-58F98C2DABDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipments" sheetId="1" r:id="rId1"/>
@@ -225,6 +225,9 @@
     <t>FOOD09</t>
   </si>
   <si>
+    <t>FOOD10</t>
+  </si>
+  <si>
     <t>MAGIC01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -884,10 +887,6 @@
     <rPh sb="10" eb="12">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FOOD10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1262,19 +1261,19 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +1331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1378,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1401,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1568,7 +1567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1660,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1683,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1785,25 +1784,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CB0538-EC56-4571-88D3-B218C74ADA49}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="58.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1841,21 +1841,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1867,27 +1867,27 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1899,27 +1899,27 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1931,27 +1931,27 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1963,27 +1963,27 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1995,27 +1995,27 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2027,27 +2027,27 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2059,27 +2059,27 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -2091,27 +2091,27 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2123,27 +2123,27 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2155,16 +2155,16 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2187,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2303,13 +2303,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2361,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2419,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2477,13 +2477,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2506,13 +2506,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2593,27 +2593,27 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -2625,27 +2625,27 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" t="s">
-        <v>92</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -2657,27 +2657,27 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F29">
         <v>50</v>
@@ -2689,27 +2689,27 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2721,27 +2721,27 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F31">
         <v>100</v>
@@ -2753,30 +2753,30 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2788,27 +2788,27 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2820,27 +2820,27 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2852,27 +2852,27 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -2884,30 +2884,30 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2919,30 +2919,30 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -2954,27 +2954,27 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2986,10 +2986,10 @@
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelItemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2444C0D9-9918-4746-ABEF-81117E158C79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDA532A-3FE6-4BBA-AF89-A1639169009C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" activeTab="1" xr2:uid="{06ED1AE1-7F2E-476F-AF54-58F98C2DABDB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5616" activeTab="1" xr2:uid="{06ED1AE1-7F2E-476F-AF54-58F98C2DABDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipments" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="122">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -687,9 +687,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
     <t>飲むと毒になる。取扱注意(+毒)</t>
     <rPh sb="0" eb="1">
       <t>ノ</t>
@@ -710,9 +707,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>静電気を蓄積したポーション(+麻痺)</t>
     <rPh sb="0" eb="3">
       <t>セイデンキ</t>
@@ -733,9 +727,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Item4</t>
-  </si>
-  <si>
     <t>不眠症のあなたに。ダンジョンで飲むのは危険(+睡眠)</t>
     <rPh sb="0" eb="3">
       <t>フミンショウ</t>
@@ -756,9 +747,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Item5</t>
-  </si>
-  <si>
     <t>よかろうが悪かろうがとにかく以上を治す薬(状態異常解除)</t>
     <rPh sb="5" eb="6">
       <t>ワル</t>
@@ -783,9 +771,6 @@
       <t>キョウアク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item6</t>
   </si>
   <si>
     <t>AllBad</t>
@@ -1261,19 +1246,19 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1331,7 +1316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1354,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1400,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1446,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1469,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1492,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1515,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1567,7 +1552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1590,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1636,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1659,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1682,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1705,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1728,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1751,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1784,26 +1769,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CB0538-EC56-4571-88D3-B218C74ADA49}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -1841,7 +1826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1873,7 +1858,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1905,7 +1890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1937,7 +1922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1969,7 +1954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2001,7 +1986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2033,7 +2018,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2065,7 +2050,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2097,7 +2082,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2129,7 +2114,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2164,7 +2149,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2193,7 +2178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2222,7 +2207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2251,7 +2236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2280,7 +2265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2309,7 +2294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2338,7 +2323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2367,7 +2352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2396,7 +2381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2425,7 +2410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2454,7 +2439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2483,7 +2468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2512,7 +2497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2541,7 +2526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2570,7 +2555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2599,7 +2584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2631,7 +2616,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2663,7 +2648,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2695,7 +2680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -2727,7 +2712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -2762,7 +2747,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -2773,7 +2758,7 @@
         <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
         <v>93</v>
@@ -2791,10 +2776,10 @@
         <v>77</v>
       </c>
       <c r="L32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -2802,10 +2787,10 @@
         <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
         <v>93</v>
@@ -2823,10 +2808,10 @@
         <v>83</v>
       </c>
       <c r="L33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -2834,10 +2819,10 @@
         <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
         <v>93</v>
@@ -2855,10 +2840,10 @@
         <v>86</v>
       </c>
       <c r="L34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -2866,10 +2851,10 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
         <v>93</v>
@@ -2890,10 +2875,10 @@
         <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2901,10 +2886,10 @@
         <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
         <v>93</v>
@@ -2922,13 +2907,13 @@
         <v>66</v>
       </c>
       <c r="J36" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2936,13 +2921,13 @@
         <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -2960,10 +2945,10 @@
         <v>47</v>
       </c>
       <c r="L37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2971,10 +2956,10 @@
         <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2989,7 +2974,7 @@
         <v>66</v>
       </c>
       <c r="L38" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
